--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7A0584-4506-4A95-9649-2FD284B45086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245390FF-EE58-433B-971C-2555DDF2588D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U16G" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -235,36 +232,6 @@
     <t>camscove@icloud.com</t>
   </si>
   <si>
-    <t>Irshad, Zara</t>
-  </si>
-  <si>
-    <t>Irshad, Kylie</t>
-  </si>
-  <si>
-    <t>0406 735 483</t>
-  </si>
-  <si>
-    <t>kylieirshad@hotmail.com</t>
-  </si>
-  <si>
-    <t>Leb, Jessica</t>
-  </si>
-  <si>
-    <t>Leb, Catherine</t>
-  </si>
-  <si>
-    <t>0403 497 429</t>
-  </si>
-  <si>
-    <t>cleb68@gmail.com</t>
-  </si>
-  <si>
-    <t>Leb, Neal</t>
-  </si>
-  <si>
-    <t>0403 309 584</t>
-  </si>
-  <si>
     <t>Lech, Amielle</t>
   </si>
   <si>
@@ -283,24 +250,6 @@
     <t>0411 055 845</t>
   </si>
   <si>
-    <t>Maniscalchi, Emily</t>
-  </si>
-  <si>
-    <t>Maniscalchi, Tania</t>
-  </si>
-  <si>
-    <t>0438 781 321</t>
-  </si>
-  <si>
-    <t>maniscalchi.tania.l@edumail.vic.gov.au</t>
-  </si>
-  <si>
-    <t>Maniscalchi, Kevin</t>
-  </si>
-  <si>
-    <t>0421 785 622</t>
-  </si>
-  <si>
     <t>Marsden, Georgie</t>
   </si>
   <si>
@@ -319,24 +268,6 @@
     <t>0433 877 055</t>
   </si>
   <si>
-    <t>Thompson, Nikita</t>
-  </si>
-  <si>
-    <t>Thompson-Moore, Leanne</t>
-  </si>
-  <si>
-    <t>0402 066 144</t>
-  </si>
-  <si>
-    <t>ashmoore44@hotmail.com</t>
-  </si>
-  <si>
-    <t>Thompson, Paul</t>
-  </si>
-  <si>
-    <t>0434 422 884</t>
-  </si>
-  <si>
     <t>Walters, Jade</t>
   </si>
   <si>
@@ -367,121 +298,31 @@
     <t>0417 369 468</t>
   </si>
   <si>
-    <t>Zouch-Ristic, Chloe</t>
-  </si>
-  <si>
-    <t>Stone, Brodi</t>
-  </si>
-  <si>
-    <t>0433 925 331</t>
-  </si>
-  <si>
-    <t>brodistone11@gmail.com</t>
-  </si>
-  <si>
-    <t>Williams, Anthony</t>
-  </si>
-  <si>
-    <t>0400 908 174</t>
-  </si>
-  <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Beatt, Latisha</t>
-  </si>
-  <si>
-    <t>Elliott, Ben</t>
-  </si>
-  <si>
-    <t>0429 800 759</t>
-  </si>
-  <si>
-    <t>ben.elliott@team.telstra.com</t>
-  </si>
-  <si>
-    <t>Brown (Reddecliffe), Tayla</t>
-  </si>
-  <si>
-    <t>McGuire, Tia</t>
-  </si>
-  <si>
-    <t>McGuire, Kellie</t>
-  </si>
-  <si>
-    <t>03 9761 3897</t>
-  </si>
-  <si>
-    <t>lachlan.mcguire2@bigpond.com</t>
-  </si>
-  <si>
-    <t>McLachlan, Jayde</t>
-  </si>
-  <si>
-    <t>McLachlan, Andrew</t>
-  </si>
-  <si>
-    <t>0434 086 831</t>
-  </si>
-  <si>
-    <t>maccalu@gmail.com</t>
-  </si>
-  <si>
-    <t>Stainthorpe, Lucy</t>
-  </si>
-  <si>
-    <t>0439 374 824</t>
-  </si>
-  <si>
-    <t>Scott, Paige</t>
-  </si>
-  <si>
-    <t>Scott, Meaghan</t>
-  </si>
-  <si>
-    <t>0435 770 174</t>
-  </si>
-  <si>
-    <t>megscott12@outlook.com</t>
-  </si>
-  <si>
-    <t>Scott, Donald</t>
-  </si>
-  <si>
-    <t>0474 931 096</t>
-  </si>
-  <si>
-    <t>Suarez, Darci</t>
-  </si>
-  <si>
-    <t>Ruiz, Solange</t>
-  </si>
-  <si>
-    <t>0401 586 630</t>
-  </si>
-  <si>
-    <t>solruiz2110@gmail.com</t>
-  </si>
-  <si>
-    <t>Suarez, Ariel</t>
-  </si>
-  <si>
-    <t>Taherzadeh, Nahal</t>
-  </si>
-  <si>
-    <t>Hatamikia, Nava</t>
-  </si>
-  <si>
-    <t>0451 192 400</t>
-  </si>
-  <si>
-    <t>avayebaran_m2006@yahoo.com</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>White, Ruby</t>
+  </si>
+  <si>
+    <t>Bywater, Caroline</t>
+  </si>
+  <si>
+    <t>0416 189 654</t>
+  </si>
+  <si>
+    <t>carolinebywater@hotmail.com</t>
+  </si>
+  <si>
+    <t>White, Liam</t>
+  </si>
+  <si>
+    <t>0428 309 102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,6 +815,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -981,7 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1336,12 +1177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1351,428 +1192,428 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="G18" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>91</v>
       </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
       <c r="G20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1795,305 +1636,32 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>151</v>
-      </c>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245390FF-EE58-433B-971C-2555DDF2588D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9E9E4-FA5B-45BD-9A96-69CEDA5CF2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U16G" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1278,362 +1280,362 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>64</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1660,8 +1662,8 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9E9E4-FA5B-45BD-9A96-69CEDA5CF2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98E0C3-8566-42AE-9B06-355C608F25FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U16G" sheetId="1" r:id="rId1"/>
@@ -1180,21 +1180,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1209,7 +1207,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1485,7 +1483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1577,7 +1575,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1592,7 +1591,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1638,30 +1637,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
   </mergeCells>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98E0C3-8566-42AE-9B06-355C608F25FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712FC8C6-8B5C-4834-867C-BD2CA93C33C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U16G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -217,9 +217,6 @@
     <t>0411 351 391</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
     <t>Cameron, Madelyn</t>
   </si>
   <si>
@@ -268,18 +265,6 @@
     <t>0433 877 055</t>
   </si>
   <si>
-    <t>Walters, Jade</t>
-  </si>
-  <si>
-    <t>Stathis, June</t>
-  </si>
-  <si>
-    <t>0410 562 498</t>
-  </si>
-  <si>
-    <t>june.stathis@hotmail.com</t>
-  </si>
-  <si>
     <t>Wilson, Tara</t>
   </si>
   <si>
@@ -317,6 +302,51 @@
   </si>
   <si>
     <t>0428 309 102</t>
+  </si>
+  <si>
+    <t>bradleighblake@hotmail.com</t>
+  </si>
+  <si>
+    <t>bigton6@gmail.com</t>
+  </si>
+  <si>
+    <t>gede_d@live.com.au</t>
+  </si>
+  <si>
+    <t>kljohnson6374@gmail.com</t>
+  </si>
+  <si>
+    <t>ty_lech@hotmail.com</t>
+  </si>
+  <si>
+    <t>fluffyflakey@hotmail.com</t>
+  </si>
+  <si>
+    <t>gemjem28@yahoo.com</t>
+  </si>
+  <si>
+    <t>Self, Skye</t>
+  </si>
+  <si>
+    <t>Bear, Kellie</t>
+  </si>
+  <si>
+    <t>0415 454 143</t>
+  </si>
+  <si>
+    <t>kelliebear15@gmail.com</t>
+  </si>
+  <si>
+    <t>kylieplatt9@gmail.com</t>
+  </si>
+  <si>
+    <t>liamwhy@hotmail.com</t>
+  </si>
+  <si>
+    <t>keith.wilson@barryplant.com.au</t>
+  </si>
+  <si>
+    <t>dwootton@adica.com.au</t>
   </si>
 </sst>
 </file>
@@ -1178,23 +1208,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1207,7 +1237,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1273,21 +1303,21 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1296,10 +1326,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1319,10 +1349,10 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1342,10 +1372,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1388,10 +1418,10 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1411,33 +1441,33 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
       <c r="G11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1457,194 +1487,160 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712FC8C6-8B5C-4834-867C-BD2CA93C33C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABDEFD-1D55-4436-9FE4-A1177A2B088E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U16G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>dwootton@adica.com.au</t>
+  </si>
+  <si>
+    <t>Stephens, Jessica</t>
+  </si>
+  <si>
+    <t>King, Chelsie</t>
+  </si>
+  <si>
+    <t>0449 540 915</t>
+  </si>
+  <si>
+    <t>reneec2009@hotmail.com</t>
+  </si>
+  <si>
+    <t>Wilson, Alanah</t>
+  </si>
+  <si>
+    <t>Wilson, Darren</t>
+  </si>
+  <si>
+    <t>0452 272 514</t>
+  </si>
+  <si>
+    <t>phantomwd14@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,81 +1585,118 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ABDEFD-1D55-4436-9FE4-A1177A2B088E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF75ABA5-9FCE-41AA-8E3D-838B41E7F6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -347,30 +347,6 @@
   </si>
   <si>
     <t>dwootton@adica.com.au</t>
-  </si>
-  <si>
-    <t>Stephens, Jessica</t>
-  </si>
-  <si>
-    <t>King, Chelsie</t>
-  </si>
-  <si>
-    <t>0449 540 915</t>
-  </si>
-  <si>
-    <t>reneec2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>Wilson, Alanah</t>
-  </si>
-  <si>
-    <t>Wilson, Darren</t>
-  </si>
-  <si>
-    <t>0452 272 514</t>
-  </si>
-  <si>
-    <t>phantomwd14@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,116 +1561,70 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
         <v>108</v>
       </c>
     </row>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF75ABA5-9FCE-41AA-8E3D-838B41E7F6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BA99C-028D-417F-AB94-3BF273E101D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -347,6 +347,24 @@
   </si>
   <si>
     <t>dwootton@adica.com.au</t>
+  </si>
+  <si>
+    <t>Goodall, Bethany</t>
+  </si>
+  <si>
+    <t>Goodall, Suzanne</t>
+  </si>
+  <si>
+    <t>0431 644 710</t>
+  </si>
+  <si>
+    <t>elobetcha8@gmail.com</t>
+  </si>
+  <si>
+    <t>Goodall, Michael</t>
+  </si>
+  <si>
+    <t>0419 362 681</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,254 +1395,277 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>108</v>
       </c>
     </row>

--- a/contact/U16G.xlsx
+++ b/contact/U16G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BA99C-028D-417F-AB94-3BF273E101D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF7B71-BFAF-47B4-A562-F5BF6240E3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -365,6 +365,27 @@
   </si>
   <si>
     <t>0419 362 681</t>
+  </si>
+  <si>
+    <t>Leb, Jessica</t>
+  </si>
+  <si>
+    <t>Leb, Neal</t>
+  </si>
+  <si>
+    <t>0403 309 584</t>
+  </si>
+  <si>
+    <t>n.leb@icloud.com</t>
+  </si>
+  <si>
+    <t>Bates, Catherine</t>
+  </si>
+  <si>
+    <t>0403 497 429</t>
+  </si>
+  <si>
+    <t>cjbates17@optusnet.com.au</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,185 +1508,208 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>108</v>
       </c>
     </row>
